--- a/Config/Excel/Server/WorldConfig.xlsx
+++ b/Config/Excel/Server/WorldConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Config\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ACA138-8EBB-A04E-81DE-3259CD2C56B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A08D46-35DE-497E-96DA-6EEA831331EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorldConfig" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>MongoDB</t>
-  </si>
-  <si>
-    <t>fantasy_main</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>测试服</t>
@@ -91,6 +87,13 @@
   </si>
   <si>
     <t>如果不需要数据库可以不填写空白就可以</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongodb://localhost:27017/</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,19 +525,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="68.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -557,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -567,7 +570,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -587,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -598,16 +601,16 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -627,19 +630,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -647,11 +650,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>

--- a/Config/Excel/Server/WorldConfig.xlsx
+++ b/Config/Excel/Server/WorldConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Config\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A08D46-35DE-497E-96DA-6EEA831331EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C07DA-1B58-40C9-8871-2827827C2F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
